--- a/files/Requisitos e Regras de Negócio/Requisitos Funcionais.xlsx
+++ b/files/Requisitos e Regras de Negócio/Requisitos Funcionais.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\GitHub\ingressoJa\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\GitHub\ingressoJa\files\Requisitos e Regras de Negócio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
   <si>
     <t>Identificador</t>
   </si>
@@ -221,19 +221,40 @@
     <t>Organizadora</t>
   </si>
   <si>
-    <t>Administrador/Comprador</t>
-  </si>
-  <si>
-    <t>Admistrador/Organizadora</t>
-  </si>
-  <si>
-    <t>Administrador/Comprador/Organizadora</t>
-  </si>
-  <si>
-    <t>Administrador/Organizadora</t>
-  </si>
-  <si>
-    <t>Usuário(s)</t>
+    <t>Ator(es)</t>
+  </si>
+  <si>
+    <t>Efetuar Login</t>
+  </si>
+  <si>
+    <t>Efetuar Saque</t>
+  </si>
+  <si>
+    <t>Exibir Saque</t>
+  </si>
+  <si>
+    <t>Usuário Comum</t>
+  </si>
+  <si>
+    <t>RF-31</t>
+  </si>
+  <si>
+    <t>RF-32</t>
+  </si>
+  <si>
+    <t>RF-33</t>
+  </si>
+  <si>
+    <t>Administrador; Comprador; Organizadora</t>
+  </si>
+  <si>
+    <t>Administrador; Comprador; Organizadora; Usuário Comum</t>
+  </si>
+  <si>
+    <t>Administrador; Organizadora</t>
+  </si>
+  <si>
+    <t>Administrador; Comprador</t>
   </si>
 </sst>
 </file>
@@ -288,19 +309,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -329,7 +337,9 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -345,7 +355,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -357,10 +367,10 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -376,7 +386,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -385,9 +395,40 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -396,85 +437,57 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -756,363 +769,396 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="23.42578125" style="4"/>
+    <col min="1" max="1" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" style="9" customWidth="1"/>
+    <col min="4" max="16384" width="23.42578125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="8" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="8" t="s">
+      <c r="C28" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C31" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="9" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="9" t="s">
+    <row r="34" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="1.1811023622047245" right="0.78740157480314965" top="1.1811023622047245" bottom="0.78740157480314965" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/files/Requisitos e Regras de Negócio/Requisitos Funcionais.xlsx
+++ b/files/Requisitos e Regras de Negócio/Requisitos Funcionais.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
   <si>
     <t>Identificador</t>
   </si>
@@ -41,9 +41,6 @@
     <t>RF-03</t>
   </si>
   <si>
-    <t>RF-04</t>
-  </si>
-  <si>
     <t>RF-05</t>
   </si>
   <si>
@@ -71,15 +68,6 @@
     <t>RF-13</t>
   </si>
   <si>
-    <t>RF-14</t>
-  </si>
-  <si>
-    <t>RF-15</t>
-  </si>
-  <si>
-    <t>RF-16</t>
-  </si>
-  <si>
     <t>RF-17</t>
   </si>
   <si>
@@ -135,18 +123,6 @@
   </si>
   <si>
     <t>Exibir Pedido</t>
-  </si>
-  <si>
-    <t>Cadastrar Categoria de Ingresso</t>
-  </si>
-  <si>
-    <t>Exibir Categoria de Ingresso</t>
-  </si>
-  <si>
-    <t>Editar Categoria de Ingresso</t>
-  </si>
-  <si>
-    <t>Excluir Categoria de Ingresso</t>
   </si>
   <si>
     <t>Excluir Comprador</t>
@@ -769,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A14" sqref="A14:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -791,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -799,10 +775,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -810,10 +786,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -821,21 +797,21 @@
         <v>4</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>38</v>
+      <c r="B5" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -843,10 +819,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -854,10 +830,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -865,10 +841,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -876,32 +852,32 @@
         <v>9</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>36</v>
+      <c r="B10" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>50</v>
+      <c r="B11" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -909,10 +885,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -920,21 +896,21 @@
         <v>13</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>62</v>
+        <v>45</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>62</v>
+      <c r="B14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -942,43 +918,43 @@
         <v>15</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>62</v>
+      <c r="B16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>62</v>
+      <c r="B17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>62</v>
+      <c r="B18" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -986,10 +962,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>62</v>
+        <v>49</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -997,21 +973,21 @@
         <v>20</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>62</v>
+        <v>34</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>69</v>
+      <c r="B21" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1019,10 +995,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1030,10 +1006,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1041,10 +1017,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1052,10 +1028,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1063,10 +1039,10 @@
         <v>26</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1074,87 +1050,43 @@
         <v>27</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="B30" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>63</v>
+      <c r="C30" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/files/Requisitos e Regras de Negócio/Requisitos Funcionais.xlsx
+++ b/files/Requisitos e Regras de Negócio/Requisitos Funcionais.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
   <si>
     <t>Identificador</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>Administrador; Comprador</t>
+  </si>
+  <si>
+    <t>RF-04</t>
+  </si>
+  <si>
+    <t>Cadastrar Conta ADM</t>
   </si>
 </sst>
 </file>
@@ -745,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD16"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -805,21 +811,21 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>67</v>
@@ -827,32 +833,32 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>68</v>
@@ -860,21 +866,21 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>42</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>54</v>
@@ -882,10 +888,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>54</v>
@@ -893,43 +899,43 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>54</v>
@@ -937,43 +943,43 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>46</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>48</v>
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>56</v>
@@ -981,10 +987,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>56</v>
@@ -992,10 +998,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>56</v>
@@ -1003,10 +1009,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>56</v>
@@ -1014,10 +1020,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>56</v>
@@ -1025,10 +1031,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>56</v>
@@ -1036,10 +1042,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>56</v>
@@ -1047,45 +1053,56 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B30" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B31" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>55</v>
       </c>
     </row>

--- a/files/Requisitos e Regras de Negócio/Requisitos Funcionais.xlsx
+++ b/files/Requisitos e Regras de Negócio/Requisitos Funcionais.xlsx
@@ -176,18 +176,6 @@
     <t>Excluir Organizadora</t>
   </si>
   <si>
-    <t>Cadastrar ingresso disponível</t>
-  </si>
-  <si>
-    <t>Exibir ingresso disponível</t>
-  </si>
-  <si>
-    <t>Editar ingresso disponível</t>
-  </si>
-  <si>
-    <t>Excluir ingresso disponível</t>
-  </si>
-  <si>
     <t>Administrador</t>
   </si>
   <si>
@@ -212,15 +200,6 @@
     <t>Usuário Comum</t>
   </si>
   <si>
-    <t>RF-31</t>
-  </si>
-  <si>
-    <t>RF-32</t>
-  </si>
-  <si>
-    <t>RF-33</t>
-  </si>
-  <si>
     <t>Administrador; Comprador; Organizadora</t>
   </si>
   <si>
@@ -237,6 +216,27 @@
   </si>
   <si>
     <t>Cadastrar Conta ADM</t>
+  </si>
+  <si>
+    <t>RF-14</t>
+  </si>
+  <si>
+    <t>RF-15</t>
+  </si>
+  <si>
+    <t>RF-16</t>
+  </si>
+  <si>
+    <t>Cadastrar tipo de ingresso</t>
+  </si>
+  <si>
+    <t>Exibir tipo de ingresso</t>
+  </si>
+  <si>
+    <t>Editar tipo de ingresso</t>
+  </si>
+  <si>
+    <t>Excluir tipo de ingresso</t>
   </si>
 </sst>
 </file>
@@ -754,7 +754,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -773,7 +773,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -781,10 +781,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -795,7 +795,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -806,18 +806,18 @@
         <v>35</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -828,7 +828,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -836,10 +836,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -847,10 +847,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -861,7 +861,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -872,7 +872,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -883,7 +883,7 @@
         <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -894,7 +894,7 @@
         <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -905,7 +905,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -916,194 +916,194 @@
         <v>45</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
